--- a/dataset/Extraction_form_basic2022.xlsx
+++ b/dataset/Extraction_form_basic2022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="1820" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="931">
   <si>
     <t>Paper Id</t>
   </si>
@@ -4586,6 +4586,29 @@
   </si>
   <si>
     <t>architectural technical debt</t>
+  </si>
+  <si>
+    <t>version analysed</t>
+  </si>
+  <si>
+    <t>release analysed</t>
+  </si>
+  <si>
+    <t>Architetural Root, Modularity Violation</t>
+  </si>
+  <si>
+    <t>code churn</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general:""
+# 
+approuch:"atdx"
+#
+tools:"proprietary"
+</t>
   </si>
 </sst>
 </file>
@@ -4999,8 +5022,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="171">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5753,7 +5782,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="171">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5924,6 +5953,8 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7077,7 +7108,7 @@
   <dimension ref="A1:AI71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
@@ -13191,19 +13222,19 @@
         <v>732</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>795</v>
+        <v>609</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>605</v>
+        <v>925</v>
       </c>
       <c r="Z59" s="72" t="s">
         <v>830</v>
       </c>
       <c r="AA59" s="1" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="AC59" s="1" t="s">
         <v>49</v>
@@ -13292,19 +13323,19 @@
         <v>732</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>795</v>
+        <v>732</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>795</v>
+        <v>926</v>
       </c>
       <c r="Z60" s="72" t="s">
         <v>830</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="AC60" s="1" t="s">
         <v>49</v>
@@ -13393,10 +13424,10 @@
         <v>670</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="Z61" s="72" t="s">
         <v>830</v>
@@ -13595,16 +13626,16 @@
         <v>732</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="Z63" s="72" t="s">
         <v>830</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="AB63" s="1" t="s">
         <v>605</v>
@@ -13696,19 +13727,19 @@
         <v>732</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>605</v>
+        <v>927</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>605</v>
+        <v>925</v>
       </c>
       <c r="Z64" s="72" t="s">
         <v>830</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>605</v>
+        <v>928</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>605</v>
+        <v>929</v>
       </c>
       <c r="AC64" s="1" t="s">
         <v>49</v>
@@ -13797,10 +13828,10 @@
         <v>732</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>605</v>
+        <v>925</v>
       </c>
       <c r="Z65" s="72" t="s">
         <v>830</v>
@@ -13809,7 +13840,7 @@
         <v>26</v>
       </c>
       <c r="AB65" s="1" t="s">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="AC65" s="1" t="s">
         <v>49</v>
@@ -13910,7 +13941,7 @@
         <v>26</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>605</v>
+        <v>929</v>
       </c>
       <c r="AC66" s="1" t="s">
         <v>49</v>
@@ -14409,7 +14440,7 @@
         <v>605</v>
       </c>
       <c r="Z71" s="72" t="s">
-        <v>830</v>
+        <v>930</v>
       </c>
       <c r="AA71" s="1" t="s">
         <v>605</v>
